--- a/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1516,17 +1516,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="25.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1535,24 +1535,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.5546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.1796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1516,17 +1516,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="25.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1535,24 +1535,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.5546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.90625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="58.1796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -507,7 +507,7 @@
     <t>Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,7 +484,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -739,7 +739,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -920,7 +920,7 @@
     <t>Codes to identify medical devices.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|4.0.1</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1056,7 +1056,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1178,7 +1178,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1516,17 +1516,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="27.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1535,25 +1535,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.49609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="230.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4876,7 +4876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>257</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>263</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>267</v>
       </c>
@@ -8945,12 +8945,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM67">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
